--- a/Class5/ggplot2_function_tutorial.xlsx
+++ b/Class5/ggplot2_function_tutorial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/R_Class_Meetup/Class5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F5C40-5CB7-664E-A6E1-9192B1862D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C0BD8-F4FE-154D-98EA-4F20BFFA8076}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38380" windowHeight="21140" activeTab="1" xr2:uid="{C9030E27-47E5-DA44-924A-3931BB558527}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28740" windowHeight="16220" xr2:uid="{C9030E27-47E5-DA44-924A-3931BB558527}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph Types &amp; Elements" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
   <si>
     <t>Purpose</t>
   </si>
@@ -78,11 +78,6 @@
   </si>
   <si>
     <t>geom_line()</t>
-  </si>
-  <si>
-    <t>• shape = digit, number choice changes type of point
-• shape = 21 allows you to create outline around bullet with different fill color, use fill = "color" to change fill color
-• color = "color" changes color of point</t>
   </si>
   <si>
     <t>Main Arguments</t>
@@ -144,19 +139,10 @@
     <t>For All Graphs Add aes() Statement</t>
   </si>
   <si>
-    <t>ggplot(data = data.frame.name, aes(x = xvariable, y = yvariable)  +
-geom_statement()</t>
-  </si>
-  <si>
     <t>Scatter plot</t>
   </si>
   <si>
     <t>• Add color = grouping.variable in aes() statement to add a color-based group to plot</t>
-  </si>
-  <si>
-    <t>• Choices for statistic of choice: "identity" (value in data), "count" (for count of values)
-• Add the following to the aes() statement to create a grouped bar chart:  fill = grouping.variable, position = position_dodge() 
-• Add the following to the aes() statement to create a stacked bar chart: fill = grouping.variable</t>
   </si>
   <si>
     <t>Will need to add fill = var, color = var, or group = var depending on the graph type to create a grouped graph</t>
@@ -172,9 +158,6 @@
   <si>
     <t>ggplot(data = opioid.df, aes(x = prescribing.rate, y = overdose.rate, color = region)) + 
 geom_point()</t>
-  </si>
-  <si>
-    <t>• To make each grouping line a different group and color add color = variable into the aes() statement</t>
   </si>
   <si>
     <t>Additional Useful Arguments</t>
@@ -355,10 +338,6 @@
   </si>
   <si>
     <t>Removes legend completely</t>
-  </si>
-  <si>
-    <t>• linetype = "type of line" can change line type from solid to other types like dashed lines
-• size = digit will change the thickness of your lines</t>
   </si>
   <si>
     <t>legend.position = c(0.8, 0.2)</t>
@@ -433,9 +412,6 @@
     <t>bar graph</t>
   </si>
   <si>
-    <t>fill</t>
-  </si>
-  <si>
     <t>line graph</t>
   </si>
   <si>
@@ -503,15 +479,6 @@
 • color = "color"</t>
   </si>
   <si>
-    <t>geom_text_repel(aes(label = label.include), size = 3)</t>
-  </si>
-  <si>
-    <t>geom_label_repel(aes(label = label.include), size = 3)</t>
-  </si>
-  <si>
-    <t>geom_label_repel(aes(label = lable.varaiable))</t>
-  </si>
-  <si>
     <t>Setting Breaks and Limits on x- and y-axes</t>
   </si>
   <si>
@@ -535,6 +502,94 @@
   </si>
   <si>
     <t>theme(scale_y_continuous(limits = c(25, 115), breaks = c(40, 60, 80, 100))</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = year, y = overdose.rate, color = region)) + 
+geom_line()</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = age.group, y = overdose.rate, color = region)) + 
+geom_histogram()</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = region, y = overdose.rate, fill = region)) +
+geom_boxplot()</t>
+  </si>
+  <si>
+    <t>• color = "color" changes boxplot outline color
+• fill = "color" changes the fill color of the boxplot</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = prescribing.rate, y = overdose.rate)) + 
+geom_smooth(method = lm)</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = year, y = overdose.rate)) + 
+geom_line() +
+geom_vline(xintercept = 2014)</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = year, y = overdose.rate)) + 
+geom_line() +
+geom_hline(yintercept = 3.0)</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = year, y = overdose.rate)) + 
+geom_segment(aes(x = 0, y = 3, xend = 2014, yend = 0))</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = prescribing.rate, y = overdose.rate)) +
+geom_text_repel(aes(label = label.var), size = 3)</t>
+  </si>
+  <si>
+    <t>ggplot(data = opioid.df, aes(x = prescribing.rate, y = overdose.rate)) +
+geom_label_repel(aes(label = label.var), size = 3)</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/ggrepel/vignettes/ggrepel.html</t>
+  </si>
+  <si>
+    <t>• Add the following to the aes() statement to create a grouped bar chart:  fill = grouping.variable, position = position_dodge() 
+• Add the following to the aes() statement to create a stacked bar chart: fill = grouping.variable</t>
+  </si>
+  <si>
+    <t>yintercept = digit</t>
+  </si>
+  <si>
+    <t>xintercept = digit</t>
+  </si>
+  <si>
+    <t>aes(label = label.variable)</t>
+  </si>
+  <si>
+    <t>geom_label_repel(aes(label = lable.variable))</t>
+  </si>
+  <si>
+    <t>aes(label = lable.variable)</t>
+  </si>
+  <si>
+    <t>ggplot(data = data.frame.name, aes(x = xvariable, y = yvariable))  +
+geom_statement()</t>
+  </si>
+  <si>
+    <t>data = data.frame.name, aes(x = xvariable, y = yvariable)</t>
+  </si>
+  <si>
+    <t>Choices for statistic of choice: "identity" (value in data), "count" (for count of values)</t>
+  </si>
+  <si>
+    <t>• To make each grouping line a different group and color add color = variable into the aes() statement
+• linetype = "type of line" can change line type from solid to other types like dashed lines
+• size = digit will change the thickness of your lines</t>
+  </si>
+  <si>
+    <t>Required Arguments</t>
+  </si>
+  <si>
+    <t>boxplot</t>
+  </si>
+  <si>
+    <t>fill for fill color, color for line color</t>
   </si>
 </sst>
 </file>
@@ -642,9 +697,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,42 +706,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -698,6 +733,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1015,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDE3C46-C612-3C44-9AD8-B00BA98003C2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,209 +1092,254 @@
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="76.33203125" customWidth="1"/>
+    <col min="6" max="6" width="96.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>143</v>
+      <c r="A12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1240,6 +1352,8 @@
     <hyperlink ref="F9" r:id="rId6" xr:uid="{42A007C3-E004-6E4B-A91B-A82F4648AC3B}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{37A21878-FB7D-E842-9C7D-3CF37EC84193}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{7DB97238-72C0-BB4D-BDCD-F52B14E79604}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{8415374C-5803-7840-A461-FC84A5BD6C6A}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{9610E9FC-0610-634A-AAAB-88F8929BCD7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1249,655 +1363,656 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159B7DD4-3658-604A-90F0-EFC1EC96EE17}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="85.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="76.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="85.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="76.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="G29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>152</v>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{955FEE41-93B1-C043-B8DF-AF04BE6A0453}"/>
@@ -1912,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E51970-B474-5446-A39C-4D8B7D235485}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,40 +2039,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>123</v>
+      <c r="B1" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
